--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl11-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl11-Ccr3.xlsx
@@ -531,34 +531,34 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.498267</v>
+        <v>0.738254</v>
       </c>
       <c r="H2">
-        <v>10.494801</v>
+        <v>2.214762</v>
       </c>
       <c r="I2">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="J2">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N2">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.457045085283</v>
+        <v>0.2502247950986666</v>
       </c>
       <c r="R2">
-        <v>4.113405767547</v>
+        <v>2.252023155888</v>
       </c>
       <c r="S2">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="T2">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,22 +605,22 @@
         <v>367.374267</v>
       </c>
       <c r="I3">
-        <v>0.9284434546632694</v>
+        <v>0.9440493064670392</v>
       </c>
       <c r="J3">
-        <v>0.9284434546632696</v>
+        <v>0.9440493064670391</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N3">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>15.999026869761</v>
+        <v>41.506107963112</v>
       </c>
       <c r="R3">
-        <v>143.991241827849</v>
+        <v>373.554971668008</v>
       </c>
       <c r="S3">
-        <v>0.9284434546632694</v>
+        <v>0.9440493064670392</v>
       </c>
       <c r="T3">
-        <v>0.9284434546632696</v>
+        <v>0.9440493064670391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,28 +661,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.465569666666667</v>
+        <v>5.698467</v>
       </c>
       <c r="H4">
-        <v>16.396709</v>
+        <v>17.095401</v>
       </c>
       <c r="I4">
-        <v>0.04143844171063926</v>
+        <v>0.0439304080539368</v>
       </c>
       <c r="J4">
-        <v>0.04143844171063927</v>
+        <v>0.04393040805393679</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N4">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.7140712113803335</v>
+        <v>1.931446002936</v>
       </c>
       <c r="R4">
-        <v>6.426640902423001</v>
+        <v>17.383014026424</v>
       </c>
       <c r="S4">
-        <v>0.04143844171063926</v>
+        <v>0.0439304080539368</v>
       </c>
       <c r="T4">
-        <v>0.04143844171063927</v>
+        <v>0.04393040805393679</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,28 +723,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4741939999999999</v>
+        <v>0.8209666666666666</v>
       </c>
       <c r="H5">
-        <v>1.422582</v>
+        <v>2.4629</v>
       </c>
       <c r="I5">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="J5">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N5">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.061952971906</v>
+        <v>0.2782595366222222</v>
       </c>
       <c r="R5">
-        <v>0.557576747154</v>
+        <v>2.5043358296</v>
       </c>
       <c r="S5">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
       <c r="T5">
-        <v>0.003595208116799817</v>
+        <v>0.006328965433220369</v>
       </c>
     </row>
   </sheetData>
